--- a/TEMP/EMPRESA_027/O R D E N E S.xlsx
+++ b/TEMP/EMPRESA_027/O R D E N E S.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>O&amp;H CONSTRUCTORA S.A.S.</t>
   </si>
@@ -42,7 +42,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">16:34
+      <t xml:space="preserve">15:08
 </t>
     </r>
     <r>
@@ -67,7 +67,7 @@
         <sz val="7"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">20-02-2025
+      <t xml:space="preserve">25-02-2025
 </t>
     </r>
     <r>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>martes, 18 de febrero de 2025</t>
+  </si>
+  <si>
+    <t>PC_SERIE_001001_286</t>
+  </si>
+  <si>
+    <t>miércoles, 19 de febrero de 2025</t>
+  </si>
+  <si>
+    <t>PC_SERIE_001001_296</t>
+  </si>
+  <si>
+    <t>viernes, 21 de febrero de 2025</t>
   </si>
 </sst>
 </file>
@@ -575,7 +587,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E3" sqref="E3"/>
@@ -621,7 +633,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">16:34
+            <t xml:space="preserve">15:08
 </t>
           </r>
           <r>
@@ -646,7 +658,7 @@
               <sz val="7"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">20-02-2025
+            <t xml:space="preserve">25-02-2025
 </t>
           </r>
           <r>
@@ -712,7 +724,41 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>6.62</v>
+        <v>78.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>13.2</v>
       </c>
     </row>
   </sheetData>
